--- a/Roguelike/Assets/Prefabs/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Prefabs/Enemy/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hosokawashigeki/Documents/Unity/Roguelike/Assets/Prefabs/Enemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46DA72-6ABA-BE4E-A287-7F8B001346FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A51BC46-7F31-0847-A4DD-A5520880DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0B4B62AB-7895-A649-A0C3-92C764A8A94D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ひとつめキノコ</t>
   </si>
@@ -82,7 +82,31 @@
     <t>バット</t>
   </si>
   <si>
-    <t>バットメイジ</t>
+    <t>アングリーバット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストーンボム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法使い</t>
+    <rPh sb="0" eb="3">
+      <t>マホウツカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライムアーミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーク</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -447,10 +471,13 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:7">
       <c r="C3" t="s">
@@ -573,25 +600,100 @@
       <c r="B9">
         <v>6</v>
       </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12">
         <v>9</v>
       </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13">
         <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Roguelike/Assets/Prefabs/Enemy/Enemy.xlsx
+++ b/Roguelike/Assets/Prefabs/Enemy/Enemy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hosokawashigeki/Documents/Unity/Roguelike/Assets/Prefabs/Enemy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A51BC46-7F31-0847-A4DD-A5520880DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DE6DF4-5066-A64F-9179-DB7FA46B6984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{0B4B62AB-7895-A649-A0C3-92C764A8A94D}"/>
   </bookViews>
@@ -76,9 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スライムラビット</t>
-  </si>
-  <si>
     <t>バット</t>
   </si>
   <si>
@@ -106,6 +103,10 @@
   </si>
   <si>
     <t>オーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぷるぷるラビット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,7 +472,7 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -541,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -561,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -581,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -601,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -621,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>17</v>
@@ -641,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>18</v>
@@ -661,16 +662,16 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>24</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G12">
         <v>24</v>
@@ -681,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>50</v>
